--- a/output/resultados_NBI.xlsx
+++ b/output/resultados_NBI.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Urbana" sheetId="1" r:id="rId1"/>
     <sheet name="Rural" sheetId="2" r:id="rId2"/>
-    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,25 +391,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -436,18 +420,9 @@
         <v>21757</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>42773.83825372982</v>
       </c>
       <c r="H2">
-        <v>0.006</v>
-      </c>
-      <c r="I2">
-        <v>0.098</v>
-      </c>
-      <c r="J2">
-        <v>42773.83825372982</v>
-      </c>
-      <c r="K2">
         <v>58600158.40760985</v>
       </c>
     </row>
@@ -471,18 +446,9 @@
         <v>25048</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>49908.92502821844</v>
       </c>
       <c r="H3">
-        <v>0.006</v>
-      </c>
-      <c r="I3">
-        <v>0.098</v>
-      </c>
-      <c r="J3">
-        <v>49908.92502821844</v>
-      </c>
-      <c r="K3">
         <v>65630236.41210724</v>
       </c>
     </row>
@@ -506,18 +472,9 @@
         <v>28334</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>56939.01180270704</v>
       </c>
       <c r="H4">
-        <v>0.006</v>
-      </c>
-      <c r="I4">
-        <v>0.098</v>
-      </c>
-      <c r="J4">
-        <v>56939.01180270704</v>
-      </c>
-      <c r="K4">
         <v>72597240.04845148</v>
       </c>
     </row>
@@ -541,18 +498,9 @@
         <v>31613</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>63906.09857719565</v>
       </c>
       <c r="H5">
-        <v>0.006</v>
-      </c>
-      <c r="I5">
-        <v>0.098</v>
-      </c>
-      <c r="J5">
-        <v>63906.09857719565</v>
-      </c>
-      <c r="K5">
         <v>79499186.63003139</v>
       </c>
     </row>
@@ -576,18 +524,9 @@
         <v>34887</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>70817.18535168427</v>
       </c>
       <c r="H6">
-        <v>0.006</v>
-      </c>
-      <c r="I6">
-        <v>0.098</v>
-      </c>
-      <c r="J6">
-        <v>70817.18535168427</v>
-      </c>
-      <c r="K6">
         <v>86467783.31440648</v>
       </c>
     </row>
@@ -611,18 +550,9 @@
         <v>38155</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>77700.27212617287</v>
       </c>
       <c r="H7">
-        <v>0.006</v>
-      </c>
-      <c r="I7">
-        <v>0.098</v>
-      </c>
-      <c r="J7">
-        <v>77700.27212617287</v>
-      </c>
-      <c r="K7">
         <v>93395727.09565979</v>
       </c>
     </row>
@@ -646,18 +576,9 @@
         <v>41417</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>84562.35890066148</v>
       </c>
       <c r="H8">
-        <v>0.006</v>
-      </c>
-      <c r="I8">
-        <v>0.098</v>
-      </c>
-      <c r="J8">
-        <v>84562.35890066148</v>
-      </c>
-      <c r="K8">
         <v>100290957.6561845</v>
       </c>
     </row>
@@ -681,18 +602,9 @@
         <v>44673</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>91410.4456751501</v>
       </c>
       <c r="H9">
-        <v>0.006</v>
-      </c>
-      <c r="I9">
-        <v>0.098</v>
-      </c>
-      <c r="J9">
-        <v>91410.4456751501</v>
-      </c>
-      <c r="K9">
         <v>107133042.3312759</v>
       </c>
     </row>
@@ -716,18 +628,9 @@
         <v>47923</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>98237.5324496387</v>
       </c>
       <c r="H10">
-        <v>0.006</v>
-      </c>
-      <c r="I10">
-        <v>0.098</v>
-      </c>
-      <c r="J10">
-        <v>98237.5324496387</v>
-      </c>
-      <c r="K10">
         <v>114053775.1740305</v>
       </c>
     </row>
@@ -751,18 +654,9 @@
         <v>51168</v>
       </c>
       <c r="G11">
-        <v>0.05</v>
+        <v>105057.6192241273</v>
       </c>
       <c r="H11">
-        <v>0.006</v>
-      </c>
-      <c r="I11">
-        <v>0.098</v>
-      </c>
-      <c r="J11">
-        <v>105057.6192241273</v>
-      </c>
-      <c r="K11">
         <v>120921319.7269705</v>
       </c>
     </row>
@@ -786,18 +680,9 @@
         <v>54406</v>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>111870.7059986159</v>
       </c>
       <c r="H12">
-        <v>0.006</v>
-      </c>
-      <c r="I12">
-        <v>0.098</v>
-      </c>
-      <c r="J12">
-        <v>111870.7059986159</v>
-      </c>
-      <c r="K12">
         <v>127756346.2504194</v>
       </c>
     </row>
@@ -808,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,25 +732,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -891,18 +761,9 @@
         <v>13626</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>40248.08671086701</v>
       </c>
       <c r="H2">
-        <v>0.012</v>
-      </c>
-      <c r="I2">
-        <v>0.098</v>
-      </c>
-      <c r="J2">
-        <v>40248.08671086701</v>
-      </c>
-      <c r="K2">
         <v>34814595.00489996</v>
       </c>
     </row>
@@ -926,18 +787,9 @@
         <v>15890</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>48228.9924969518</v>
       </c>
       <c r="H3">
-        <v>0.012</v>
-      </c>
-      <c r="I3">
-        <v>0.098</v>
-      </c>
-      <c r="J3">
-        <v>48228.9924969518</v>
-      </c>
-      <c r="K3">
         <v>40560582.68993647</v>
       </c>
     </row>
@@ -961,18 +813,9 @@
         <v>18146</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>55933.89828303661</v>
       </c>
       <c r="H4">
-        <v>0.012</v>
-      </c>
-      <c r="I4">
-        <v>0.098</v>
-      </c>
-      <c r="J4">
-        <v>55933.89828303661</v>
-      </c>
-      <c r="K4">
         <v>46033598.28693914</v>
       </c>
     </row>
@@ -996,18 +839,9 @@
         <v>20394</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>63454.80406912143</v>
       </c>
       <c r="H5">
-        <v>0.012</v>
-      </c>
-      <c r="I5">
-        <v>0.098</v>
-      </c>
-      <c r="J5">
-        <v>63454.80406912143</v>
-      </c>
-      <c r="K5">
         <v>51334936.49191923</v>
       </c>
     </row>
@@ -1031,18 +865,9 @@
         <v>22636</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>70837.70985520622</v>
       </c>
       <c r="H6">
-        <v>0.012</v>
-      </c>
-      <c r="I6">
-        <v>0.098</v>
-      </c>
-      <c r="J6">
-        <v>70837.70985520622</v>
-      </c>
-      <c r="K6">
         <v>56528492.46445457</v>
       </c>
     </row>
@@ -1066,18 +891,9 @@
         <v>24869</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>78128.61564129102</v>
       </c>
       <c r="H7">
-        <v>0.012</v>
-      </c>
-      <c r="I7">
-        <v>0.098</v>
-      </c>
-      <c r="J7">
-        <v>78128.61564129102</v>
-      </c>
-      <c r="K7">
         <v>61643477.74097861</v>
       </c>
     </row>
@@ -1101,18 +917,9 @@
         <v>27096</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>85327.52142737585</v>
       </c>
       <c r="H8">
-        <v>0.012</v>
-      </c>
-      <c r="I8">
-        <v>0.098</v>
-      </c>
-      <c r="J8">
-        <v>85327.52142737585</v>
-      </c>
-      <c r="K8">
         <v>66726121.75620791</v>
       </c>
     </row>
@@ -1136,18 +943,9 @@
         <v>29315</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>92526.42721346064</v>
       </c>
       <c r="H9">
-        <v>0.012</v>
-      </c>
-      <c r="I9">
-        <v>0.098</v>
-      </c>
-      <c r="J9">
-        <v>92526.42721346064</v>
-      </c>
-      <c r="K9">
         <v>71707981.090432</v>
       </c>
     </row>
@@ -1171,18 +969,9 @@
         <v>31528</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>99633.33299954544</v>
       </c>
       <c r="H10">
-        <v>0.012</v>
-      </c>
-      <c r="I10">
-        <v>0.098</v>
-      </c>
-      <c r="J10">
-        <v>99633.33299954544</v>
-      </c>
-      <c r="K10">
         <v>76717666.40964998</v>
       </c>
     </row>
@@ -1206,18 +995,9 @@
         <v>33733</v>
       </c>
       <c r="G11">
-        <v>0.05</v>
+        <v>106740.2387856302</v>
       </c>
       <c r="H11">
-        <v>0.012</v>
-      </c>
-      <c r="I11">
-        <v>0.098</v>
-      </c>
-      <c r="J11">
-        <v>106740.2387856302</v>
-      </c>
-      <c r="K11">
         <v>81656282.67100713</v>
       </c>
     </row>
@@ -1241,474 +1021,10 @@
         <v>35930</v>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>113847.1445717151</v>
       </c>
       <c r="H12">
-        <v>0.012</v>
-      </c>
-      <c r="I12">
-        <v>0.098</v>
-      </c>
-      <c r="J12">
-        <v>113847.1445717151</v>
-      </c>
-      <c r="K12">
         <v>86523829.87450345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsPerPSU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsPerPSU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEFF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PSUinSample</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsInSample</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsInSample</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cve</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>15.83131991051454</v>
-      </c>
-      <c r="C2">
-        <v>4.388230563002682</v>
-      </c>
-      <c r="D2">
-        <v>2235</v>
-      </c>
-      <c r="E2">
-        <v>11177</v>
-      </c>
-      <c r="F2">
-        <v>35383</v>
-      </c>
-      <c r="G2">
-        <v>0.039</v>
-      </c>
-      <c r="H2">
-        <v>0.006</v>
-      </c>
-      <c r="I2">
-        <v>0.076</v>
-      </c>
-      <c r="J2">
-        <v>41796.31024948986</v>
-      </c>
-      <c r="K2">
-        <v>93414753.40760985</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>18.98794063079777</v>
-      </c>
-      <c r="C3">
-        <v>5.108905380333952</v>
-      </c>
-      <c r="D3">
-        <v>2156</v>
-      </c>
-      <c r="E3">
-        <v>12932</v>
-      </c>
-      <c r="F3">
-        <v>40938</v>
-      </c>
-      <c r="G3">
-        <v>0.039</v>
-      </c>
-      <c r="H3">
-        <v>0.006</v>
-      </c>
-      <c r="I3">
-        <v>0.076</v>
-      </c>
-      <c r="J3">
-        <v>49253.62681452098</v>
-      </c>
-      <c r="K3">
-        <v>106190819.4121072</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>22.15443279313632</v>
-      </c>
-      <c r="C4">
-        <v>5.832558139534884</v>
-      </c>
-      <c r="D4">
-        <v>2098</v>
-      </c>
-      <c r="E4">
-        <v>14683</v>
-      </c>
-      <c r="F4">
-        <v>46480</v>
-      </c>
-      <c r="G4">
-        <v>0.039</v>
-      </c>
-      <c r="H4">
-        <v>0.006</v>
-      </c>
-      <c r="I4">
-        <v>0.076</v>
-      </c>
-      <c r="J4">
-        <v>56544.72738248402</v>
-      </c>
-      <c r="K4">
-        <v>118630838.0484515</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>25.3321967851924</v>
-      </c>
-      <c r="C5">
-        <v>6.552771699489424</v>
-      </c>
-      <c r="D5">
-        <v>2053</v>
-      </c>
-      <c r="E5">
-        <v>16429</v>
-      </c>
-      <c r="F5">
-        <v>52007</v>
-      </c>
-      <c r="G5">
-        <v>0.039</v>
-      </c>
-      <c r="H5">
-        <v>0.006</v>
-      </c>
-      <c r="I5">
-        <v>0.076</v>
-      </c>
-      <c r="J5">
-        <v>63728.26236241178</v>
-      </c>
-      <c r="K5">
-        <v>130834122.6300314</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>28.49083704804358</v>
-      </c>
-      <c r="C6">
-        <v>7.265963060686016</v>
-      </c>
-      <c r="D6">
-        <v>2019</v>
-      </c>
-      <c r="E6">
-        <v>18171</v>
-      </c>
-      <c r="F6">
-        <v>57523</v>
-      </c>
-      <c r="G6">
-        <v>0.039</v>
-      </c>
-      <c r="H6">
-        <v>0.006</v>
-      </c>
-      <c r="I6">
-        <v>0.076</v>
-      </c>
-      <c r="J6">
-        <v>70825.29733254407</v>
-      </c>
-      <c r="K6">
-        <v>142996275.3144065</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>31.6544450025113</v>
-      </c>
-      <c r="C7">
-        <v>7.985931387300632</v>
-      </c>
-      <c r="D7">
-        <v>1991</v>
-      </c>
-      <c r="E7">
-        <v>19910</v>
-      </c>
-      <c r="F7">
-        <v>63024</v>
-      </c>
-      <c r="G7">
-        <v>0.039</v>
-      </c>
-      <c r="H7">
-        <v>0.006</v>
-      </c>
-      <c r="I7">
-        <v>0.076</v>
-      </c>
-      <c r="J7">
-        <v>77870.01762715208</v>
-      </c>
-      <c r="K7">
-        <v>155039205.0956598</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>34.8135162601626</v>
-      </c>
-      <c r="C8">
-        <v>8.705810736026566</v>
-      </c>
-      <c r="D8">
-        <v>1968</v>
-      </c>
-      <c r="E8">
-        <v>21644</v>
-      </c>
-      <c r="F8">
-        <v>68513</v>
-      </c>
-      <c r="G8">
-        <v>0.039</v>
-      </c>
-      <c r="H8">
-        <v>0.006</v>
-      </c>
-      <c r="I8">
-        <v>0.076</v>
-      </c>
-      <c r="J8">
-        <v>84866.40226432138</v>
-      </c>
-      <c r="K8">
-        <v>167017079.6561845</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>38.00102722136621</v>
-      </c>
-      <c r="C9">
-        <v>9.429035558966488</v>
-      </c>
-      <c r="D9">
-        <v>1947</v>
-      </c>
-      <c r="E9">
-        <v>23374</v>
-      </c>
-      <c r="F9">
-        <v>73988</v>
-      </c>
-      <c r="G9">
-        <v>0.039</v>
-      </c>
-      <c r="H9">
-        <v>0.006</v>
-      </c>
-      <c r="I9">
-        <v>0.076</v>
-      </c>
-      <c r="J9">
-        <v>91854.66015987463</v>
-      </c>
-      <c r="K9">
-        <v>178841023.3312759</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>41.14500258933195</v>
-      </c>
-      <c r="C10">
-        <v>10.14880952380952</v>
-      </c>
-      <c r="D10">
-        <v>1931</v>
-      </c>
-      <c r="E10">
-        <v>25100</v>
-      </c>
-      <c r="F10">
-        <v>79451</v>
-      </c>
-      <c r="G10">
-        <v>0.039</v>
-      </c>
-      <c r="H10">
-        <v>0.006</v>
-      </c>
-      <c r="I10">
-        <v>0.076</v>
-      </c>
-      <c r="J10">
-        <v>98794.11764579521</v>
-      </c>
-      <c r="K10">
-        <v>190771441.1740305</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>44.3115866388309</v>
-      </c>
-      <c r="C11">
-        <v>10.8685370741483</v>
-      </c>
-      <c r="D11">
-        <v>1916</v>
-      </c>
-      <c r="E11">
-        <v>26822</v>
-      </c>
-      <c r="F11">
-        <v>84901</v>
-      </c>
-      <c r="G11">
-        <v>0.039</v>
-      </c>
-      <c r="H11">
-        <v>0.006</v>
-      </c>
-      <c r="I11">
-        <v>0.076</v>
-      </c>
-      <c r="J11">
-        <v>105729.4377489408</v>
-      </c>
-      <c r="K11">
-        <v>202577602.7269706</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>47.49526813880126</v>
-      </c>
-      <c r="C12">
-        <v>11.58143693787911</v>
-      </c>
-      <c r="D12">
-        <v>1902</v>
-      </c>
-      <c r="E12">
-        <v>28538</v>
-      </c>
-      <c r="F12">
-        <v>90336</v>
-      </c>
-      <c r="G12">
-        <v>0.039</v>
-      </c>
-      <c r="H12">
-        <v>0.006</v>
-      </c>
-      <c r="I12">
-        <v>0.076</v>
-      </c>
-      <c r="J12">
-        <v>112660.4501842373</v>
-      </c>
-      <c r="K12">
-        <v>214280176.2504194</v>
       </c>
     </row>
   </sheetData>
